--- a/metabolabpy/nmr/jupyter/hsqcData.xlsx
+++ b/metabolabpy/nmr/jupyter/hsqcData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwigc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwigc/Develop/metabolabpy/metabolabpy/nmr/jupyter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BF426-2E9A-BE4D-BFE0-6CF04F932253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBCBF7C-EF66-2E46-8D41-2A8B06F7D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="3340" windowWidth="36000" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="36000" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-Alanine" sheetId="1" r:id="rId1"/>
     <sheet name="L-LacticAcid" sheetId="3" r:id="rId2"/>
+    <sheet name="PyruvicAcid" sheetId="4" r:id="rId3"/>
+    <sheet name="L-AsparticAcid" sheetId="5" r:id="rId4"/>
+    <sheet name="L-GlutamicAcid" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t>Dataset.0</t>
   </si>
@@ -226,6 +229,9 @@
   </si>
   <si>
     <t>n_bonds: 1</t>
+  </si>
+  <si>
+    <t>0 0 1</t>
   </si>
 </sst>
 </file>
@@ -812,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,4 +1057,184 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A9447-4227-FB4E-B914-F88507E60E99}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>15.509</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3">
+        <v>84.491</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DBF641-0A67-2446-ABBD-76423B086A21}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4391DC-0956-604C-8E0A-04B37EF25534}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>